--- a/config_debug/act_ty_prize_quiz_config.xlsx
+++ b/config_debug/act_ty_prize_quiz_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="10560" tabRatio="719"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10560" tabRatio="719"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -146,14 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,158 +174,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,198 +189,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,251 +202,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -805,61 +231,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -908,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,19 +528,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
@@ -1168,7 +550,7 @@
     <col min="7" max="7" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +582,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1208,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="D2" s="2">
         <v>1614614399</v>
@@ -1232,7 +614,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1240,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="D3" s="2">
         <v>1614614399</v>
@@ -1264,7 +646,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1282,7 +664,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1300,7 +682,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1318,7 +700,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1336,7 +718,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1354,7 +736,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1372,7 +754,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1390,7 +772,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1408,7 +790,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1426,7 +808,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1444,7 +826,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1462,7 +844,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1480,7 +862,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1498,7 +880,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1516,7 +898,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1534,7 +916,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1552,7 +934,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1570,7 +952,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1588,7 +970,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1606,7 +988,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1624,7 +1006,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1642,7 +1024,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1660,7 +1042,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1678,7 +1060,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1697,22 +1079,21 @@
       <c r="P27" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="60.875" customWidth="1"/>
@@ -1721,7 +1102,7 @@
     <col min="6" max="6" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1124,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1761,7 +1142,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1779,7 +1160,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1797,7 +1178,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1815,7 +1196,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1833,7 +1214,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1851,7 +1232,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1869,7 +1250,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1887,7 +1268,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1914,7 +1295,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1941,7 +1322,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1962,7 +1343,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1983,7 +1364,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2004,7 +1385,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2014,7 +1395,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2024,7 +1405,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2034,7 +1415,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2044,7 +1425,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2054,7 +1435,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2064,7 +1445,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2074,7 +1455,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2084,7 +1465,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2094,7 +1475,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2104,7 +1485,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2114,7 +1495,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2124,7 +1505,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2134,7 +1515,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2144,7 +1525,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2154,7 +1535,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2164,7 +1545,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2175,7 +1556,7 @@
       <c r="H31" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/act_ty_prize_quiz_config.xlsx
+++ b/config_debug/act_ty_prize_quiz_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10560" tabRatio="719"/>
+    <workbookView windowWidth="22500" windowHeight="10560" tabRatio="719"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -151,8 +146,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +175,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +335,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,9 +534,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -231,17 +805,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,19 +1146,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
@@ -550,7 +1168,7 @@
     <col min="7" max="7" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="5" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +1200,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -590,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="D2" s="2">
         <v>1614614399</v>
@@ -614,7 +1232,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -622,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="D3" s="2">
         <v>1614614399</v>
@@ -646,7 +1264,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -664,7 +1282,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -682,7 +1300,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -700,7 +1318,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -718,7 +1336,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -736,7 +1354,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -754,7 +1372,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -772,7 +1390,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -790,7 +1408,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -808,7 +1426,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -826,7 +1444,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -844,7 +1462,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -862,7 +1480,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -880,7 +1498,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -898,7 +1516,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -916,7 +1534,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -934,7 +1552,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -952,7 +1570,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -970,7 +1588,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -988,7 +1606,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1006,7 +1624,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1024,7 +1642,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1042,7 +1660,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1060,7 +1678,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1079,21 +1697,22 @@
       <c r="P27" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="60.875" customWidth="1"/>
@@ -1102,7 +1721,7 @@
     <col min="6" max="6" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1743,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1142,7 +1761,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1160,7 +1779,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1178,7 +1797,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1196,7 +1815,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1214,7 +1833,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1232,7 +1851,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1250,7 +1869,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1268,7 +1887,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1295,7 +1914,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1322,7 +1941,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1343,7 +1962,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1364,7 +1983,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1385,7 +2004,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1395,7 +2014,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1405,7 +2024,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1415,7 +2034,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1425,7 +2044,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1435,7 +2054,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1445,7 +2064,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1455,7 +2074,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1465,7 +2084,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1475,7 +2094,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1485,7 +2104,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1495,7 +2114,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1505,7 +2124,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1515,7 +2134,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1525,7 +2144,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1535,7 +2154,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1545,7 +2164,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1556,7 +2175,7 @@
       <c r="H31" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>